--- a/topic01-introduction/calendar-fp-26.xlsx
+++ b/topic01-introduction/calendar-fp-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maireadmeagher/Documents/GitRepos/fun-prog-26/topic01-introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C48025-758B-FC44-9C2E-FBE025496FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59263B5C-F792-6E41-9E81-FEF50C2F0207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="27040" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="600" windowWidth="27040" windowHeight="15900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -428,25 +428,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,7 +955,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -964,113 +964,113 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="11" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2210,11 +2210,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="7" spans="2:4" ht="19">
       <c r="B7" s="1" t="s">
@@ -2297,7 +2297,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I19" sqref="I19"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20.25" customHeight="1"/>
@@ -2317,196 +2317,196 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="62"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:9" ht="20.75" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="32" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="59"/>
+      <c r="D3" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="77" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="83" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="53"/>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="75">
+    <row r="4" spans="1:9" ht="25" customHeight="1">
+      <c r="A4" s="57"/>
+      <c r="B4" s="70">
         <v>1</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="86"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1">
-      <c r="A5" s="58"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="72"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1">
+      <c r="A5" s="57"/>
       <c r="B5" s="54">
         <v>2</v>
       </c>
       <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="56"/>
-      <c r="F5" s="86"/>
-    </row>
-    <row r="6" spans="1:9" ht="22" customHeight="1">
-      <c r="A6" s="58"/>
+      <c r="F5" s="72"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1">
+      <c r="A6" s="57"/>
       <c r="B6" s="54">
         <v>3</v>
       </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="57"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:9" ht="25" customHeight="1">
+      <c r="A7" s="57"/>
       <c r="B7" s="54">
         <v>4</v>
       </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="57"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="86"/>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="F7" s="72"/>
+    </row>
+    <row r="8" spans="1:9" ht="25" customHeight="1">
+      <c r="A8" s="58"/>
       <c r="B8" s="54" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="58"/>
+      <c r="F8" s="59"/>
+    </row>
+    <row r="9" spans="1:9" ht="25" customHeight="1">
+      <c r="A9" s="57"/>
       <c r="B9" s="54">
         <v>5</v>
       </c>
       <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:9" s="70" customFormat="1" ht="36" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="67">
+      <c r="F9" s="59"/>
+      <c r="G9" s="66"/>
+    </row>
+    <row r="10" spans="1:9" s="66" customFormat="1" ht="25" customHeight="1">
+      <c r="A10" s="63"/>
+      <c r="B10" s="64">
         <v>6</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="88"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="59"/>
+    <row r="11" spans="1:9" ht="25" customHeight="1">
+      <c r="A11" s="58"/>
       <c r="B11" s="54">
         <v>7</v>
       </c>
       <c r="C11" s="53"/>
-      <c r="D11" s="57"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="53"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:9" ht="25" customHeight="1">
+      <c r="A12" s="57"/>
       <c r="B12" s="54">
         <v>8</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="57"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="87"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="58"/>
+      <c r="F12" s="73"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1">
+      <c r="A13" s="57"/>
       <c r="B13" s="54">
         <v>9</v>
       </c>
       <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="90" t="s">
+      <c r="D13" s="91"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:9" ht="25" customHeight="1">
+      <c r="A14" s="57"/>
       <c r="B14" s="54" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="53"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="91"/>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1">
-      <c r="A15" s="59"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="86"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1">
+      <c r="A15" s="58"/>
       <c r="B15" s="54" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="86"/>
       <c r="I15" s="53"/>
     </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1">
-      <c r="A16" s="59"/>
+    <row r="16" spans="1:9" ht="25" customHeight="1">
+      <c r="A16" s="58"/>
       <c r="B16" s="54">
         <v>10</v>
       </c>
       <c r="C16" s="53"/>
-      <c r="D16" s="57"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="53"/>
-      <c r="F16" s="91"/>
+      <c r="F16" s="86"/>
       <c r="I16" s="53"/>
     </row>
-    <row r="17" spans="1:6" ht="19.75" customHeight="1">
-      <c r="A17" s="59"/>
+    <row r="17" spans="1:6" ht="25" customHeight="1">
+      <c r="A17" s="58"/>
       <c r="B17" s="54">
         <v>11</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="53"/>
-      <c r="F17" s="91"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.25" customHeight="1">
+      <c r="F17" s="86"/>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1">
       <c r="A18" s="53"/>
       <c r="B18" s="54">
         <v>12</v>
       </c>
       <c r="C18" s="53"/>
-      <c r="D18" s="57"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="53"/>
-      <c r="F18" s="92"/>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1">
+      <c r="F18" s="87"/>
+    </row>
+    <row r="19" spans="1:6" ht="25" customHeight="1">
       <c r="B19" s="54">
         <v>13</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="F19" s="89" t="s">
+      <c r="D19" s="91"/>
+      <c r="F19" s="88" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2561,43 +2561,43 @@
     <row r="1" spans="1:29" ht="20" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="12"/>
-      <c r="C1" s="80">
+      <c r="C1" s="77">
         <v>43709</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="80">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="77">
         <v>43739</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="80">
+      <c r="K1" s="77">
         <v>43770</v>
       </c>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="80">
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="77">
         <v>43800</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="80">
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="77">
         <v>43466</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
     </row>
     <row r="2" spans="1:29" ht="20" customHeight="1">
       <c r="A2" s="13" t="s">
@@ -2657,8 +2657,8 @@
         <v>12</v>
       </c>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="81"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="78"/>
       <c r="AC2" s="11"/>
     </row>
     <row r="3" spans="1:29" ht="10" customHeight="1">
@@ -3062,8 +3062,8 @@
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="42">
         <v>43106.447916666664</v>
       </c>
@@ -3073,8 +3073,8 @@
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:7" ht="24" customHeight="1">
@@ -3082,8 +3082,8 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
@@ -3091,8 +3091,8 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1">
@@ -3100,8 +3100,8 @@
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1">
@@ -3109,83 +3109,83 @@
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
       <c r="A9" s="40">
         <v>43106.510416666664</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="80"/>
       <c r="G9" s="42">
         <v>43106.510416666664</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
       <c r="A10" s="43"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="44"/>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1">
       <c r="A12" s="43"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="44"/>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1">
       <c r="A13" s="43"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="44"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1">
       <c r="A14" s="43"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="44"/>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1">
       <c r="A15" s="40">
         <v>43111.083333333336</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="42">
         <v>43106.572916666664</v>
       </c>
@@ -3193,19 +3193,19 @@
     <row r="16" spans="1:7" ht="24" customHeight="1">
       <c r="A16" s="43"/>
       <c r="B16" s="41"/>
-      <c r="C16" s="83"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" ht="24" customHeight="1">
       <c r="A17" s="43"/>
       <c r="B17" s="41"/>
-      <c r="C17" s="83"/>
+      <c r="C17" s="80"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="80"/>
       <c r="G17" s="44"/>
     </row>
   </sheetData>
